--- a/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
+++ b/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <r>
       <t xml:space="preserve">SAATCHI &amp; SAATCHI </t>
@@ -47,7 +47,7 @@
     <t>JOB NUMBER:</t>
   </si>
   <si>
-    <t>412CGOCHCT41650</t>
+    <t>415TDAUNT41700</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -59,7 +59,7 @@
     <t>CLIENT:</t>
   </si>
   <si>
-    <t>CGO</t>
+    <t>UNY TDA</t>
   </si>
   <si>
     <t>BRAND:</t>
@@ -101,70 +101,16 @@
     <t>LENGTH</t>
   </si>
   <si>
-    <t>TYFC4239H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER TRUCKS SUVs RAV4 APR 30</t>
+    <t>TYFU4188H</t>
+  </si>
+  <si>
+    <t>FEB PRES DAY UNY NFL DEAR WINTER TRUCKS SUVs RAV4 Lease+KBB</t>
   </si>
   <si>
     <t>:30</t>
   </si>
   <si>
-    <t>TYFC4240H</t>
-  </si>
-  <si>
-    <t>::27/03</t>
-  </si>
-  <si>
-    <t>TYFC4241H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER TRUCKS SUVs RAV4 APR 15</t>
-  </si>
-  <si>
-    <t>:15</t>
-  </si>
-  <si>
-    <t>TYFC4242H</t>
-  </si>
-  <si>
-    <t>:12/03</t>
-  </si>
-  <si>
-    <t>TYFC4243H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER TRUCKS SUVs Tundra Hybrid APR 15</t>
-  </si>
-  <si>
-    <t>TYFC4244H</t>
-  </si>
-  <si>
-    <t>TYFC4245H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER AWD SEDANS Camry APR 30</t>
-  </si>
-  <si>
-    <t>TYFC4246H</t>
-  </si>
-  <si>
-    <t>TYFC4247H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER AWD SEDANS Camry APR 15</t>
-  </si>
-  <si>
-    <t>TYFC4248H</t>
-  </si>
-  <si>
-    <t>TYFC4249H</t>
-  </si>
-  <si>
-    <t>NFL CGO DEAR WINTER AWD SEDANS Multi APR 15</t>
-  </si>
-  <si>
-    <t>TYFC4250H</t>
+    <t xml:space="preserve">                                                                 </t>
   </si>
   <si>
     <t xml:space="preserve">CATEGORY </t>
@@ -1282,91 +1228,65 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -1374,129 +1294,91 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
-      <c r="J20" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>43</v>
-      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
-      <c r="J25" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" ht="12" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" ht="12" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -1516,27 +1398,27 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="40" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K29" s="40"/>
       <c r="L29" s="41"/>
@@ -1551,13 +1433,13 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C31" s="24">
         <v>2185</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
@@ -1570,13 +1452,13 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C32" s="24">
         <v>3762</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="19"/>
@@ -1595,7 +1477,7 @@
         <v>863</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
@@ -1610,13 +1492,13 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C34" s="21">
         <v>2330</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
@@ -1629,13 +1511,13 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C35" s="21">
         <v>136</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -1648,13 +1530,13 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C36" s="24">
         <v>592</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="19"/>
@@ -1669,13 +1551,13 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C37" s="21">
         <v>524</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="19"/>
@@ -1694,7 +1576,7 @@
         <v>696</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
@@ -1707,13 +1589,13 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C39" s="24">
         <v>584</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="19"/>
@@ -1728,13 +1610,13 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C40" s="24">
         <v>564</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="50"/>
@@ -1747,13 +1629,13 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C41" s="24">
         <v>596</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="19"/>
@@ -1766,13 +1648,13 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C42" s="21">
         <v>2326</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="19"/>
@@ -1791,7 +1673,7 @@
         <v>676</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -1810,12 +1692,12 @@
         <v>732</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
       <c r="G44" s="44" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -1831,7 +1713,7 @@
         <v>720</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="50"/>
@@ -1850,7 +1732,7 @@
         <v>832</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="19"/>
@@ -1863,13 +1745,13 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C47" s="21">
         <v>520</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="19"/>
@@ -1882,13 +1764,13 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C48" s="24">
         <v>400</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
@@ -1907,7 +1789,7 @@
         <v>737</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="50"/>
@@ -1926,7 +1808,7 @@
         <v>2437</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -1945,7 +1827,7 @@
         <v>2394</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
@@ -1958,13 +1840,13 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C52" s="24">
         <v>2192</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
@@ -1983,7 +1865,7 @@
         <v>760</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
@@ -2002,7 +1884,7 @@
         <v>792</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="43"/>
@@ -2021,7 +1903,7 @@
         <v>840</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="43"/>
@@ -2034,13 +1916,13 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="24" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C56" s="24">
         <v>500</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
@@ -2061,7 +1943,7 @@
         <v>768</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -2074,13 +1956,13 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C58" s="21">
         <v>2322</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="19"/>
@@ -2106,7 +1988,7 @@
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" s="43" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E60" s="43"/>
       <c r="F60" s="43"/>
@@ -2142,7 +2024,7 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -2161,7 +2043,7 @@
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="56"/>
       <c r="C64" s="57" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="58"/>
@@ -2200,7 +2082,7 @@
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="56"/>
       <c r="C67" s="60" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
@@ -2237,7 +2119,7 @@
     <row r="70" ht="15" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="56"/>
       <c r="C70" s="62" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="58"/>
@@ -2317,7 +2199,7 @@
       <c r="B76" s="63"/>
       <c r="C76" s="64"/>
       <c r="D76" s="64" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E76" s="64"/>
       <c r="F76" s="64"/>
@@ -2333,7 +2215,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="39"/>

--- a/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
+++ b/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <r>
       <t xml:space="preserve">SAATCHI &amp; SAATCHI </t>
@@ -72,6 +72,9 @@
     <t>PRODUCER:</t>
   </si>
   <si>
+    <t>Matt Vail</t>
+  </si>
+  <si>
     <t>ISCI CODES</t>
   </si>
   <si>
@@ -81,33 +84,15 @@
     <t>LENGTHS</t>
   </si>
   <si>
-    <t>TYFK4241H</t>
-  </si>
-  <si>
-    <t>REV DEC ‘24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS RAV4 LEASE 1203</t>
+    <t>TYFK4244H</t>
+  </si>
+  <si>
+    <t>REV DEC ‘24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS TACOMA LEASE OR TUNDRA LEASE 2703</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>TYFK4242H</t>
-  </si>
-  <si>
-    <t>REV DEC ‘24 KSC NFL THON P1 ORNAMENTS RAV4 LEASE 2703</t>
-  </si>
-  <si>
-    <t>TYFK4243H</t>
-  </si>
-  <si>
-    <t>REV DEC ‘24 KSC NFL THON P1 ORNAMENTS TUNDRA APR 1203</t>
-  </si>
-  <si>
-    <t>TYFK4244H</t>
-  </si>
-  <si>
-    <t>REV DEC ‘24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS TACOMA LEASE OR TUNDRA LEASE 2703</t>
-  </si>
-  <si>
     <t xml:space="preserve">WORK CATEGORY </t>
   </si>
   <si>
@@ -181,6 +166,9 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>Production and Audio done at PXP</t>
   </si>
 </sst>
 </file>
@@ -200,10 +188,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <family val="1"/>
       <sz val="16"/>
@@ -213,6 +197,10 @@
       <b/>
       <family val="2"/>
       <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -391,31 +379,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,7 +411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -433,7 +420,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,13 +429,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,34 +444,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,7 +487,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,44 +496,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -827,912 +821,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0" zoomScale="150" zoomScaleNormal="100">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.15" defaultColWidth="9.1640625" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f>TODAY()</f>
         <v>45796</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="H6" s="13" t="s">
+      <c r="D6" s="16"/>
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="18"/>
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23">
+      <c r="J8" s="21"/>
+      <c r="K8" s="22">
+        <f>YEAR(TODAY())</f>
         <v>2025</v>
       </c>
     </row>
     <row r="9" ht="10" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="21" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" ht="12" customHeight="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" ht="33" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>8</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>11</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" ht="33" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37" t="s">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="40" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="40" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="40" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="40" t="s">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="40" t="s">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="40" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="40" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43">
         <f>SUM(H28:H36)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42">
+      <c r="D42" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43">
         <f>H38+H40</f>
         <v>0</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="45" t="s">
-        <v>49</v>
+      <c r="B44" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="52"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="52"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="51"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="52"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
+++ b/backend/zTEMPLATE/Finance Documents/newEstimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <r>
       <t xml:space="preserve">SAATCHI &amp; SAATCHI </t>
@@ -84,13 +84,31 @@
     <t>LENGTHS</t>
   </si>
   <si>
+    <t>TYFK4241H</t>
+  </si>
+  <si>
+    <t>REV DEC 24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS RAV4 LEASE 1203</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>TYFK4242H</t>
+  </si>
+  <si>
+    <t>REV DEC 24 KSC NFL THON P1 ORNAMENTS RAV4 LEASE 2703</t>
+  </si>
+  <si>
+    <t>TYFK4243H</t>
+  </si>
+  <si>
+    <t>REV DEC 24 KSC NFL THON P1 ORNAMENTS TUNDRA APR 1203</t>
+  </si>
+  <si>
     <t>TYFK4244H</t>
   </si>
   <si>
-    <t>REV DEC ‘24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS TACOMA LEASE OR TUNDRA LEASE 2703</t>
-  </si>
-  <si>
-    <t>unknown</t>
+    <t>REV DEC 24 KSC NFL THON P1 SHAKE UP THE HOLIDAYS TACOMA LEASE OR TUNDRA LEASE 2703</t>
   </si>
   <si>
     <t xml:space="preserve">WORK CATEGORY </t>
@@ -989,37 +1007,55 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1127,17 +1163,17 @@
     </row>
     <row r="26" ht="33" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -1152,11 +1188,11 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="41" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -1168,11 +1204,11 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="41" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -1184,11 +1220,11 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1200,11 +1236,11 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -1216,11 +1252,11 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -1232,11 +1268,11 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -1248,11 +1284,11 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
@@ -1264,11 +1300,11 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
@@ -1280,11 +1316,11 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -1310,7 +1346,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="41" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -1349,7 +1385,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -1373,7 +1409,7 @@
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
@@ -1408,7 +1444,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1474,7 +1510,7 @@
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="50"/>
       <c r="C50" s="53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
